--- a/TimeSweep80Bar130C.xlsx
+++ b/TimeSweep80Bar130C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Research\OtherProjects\HiPressure\ML\SteadyStateDataPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0BE151-02EC-422C-9B39-952444D09FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535E1159-4D1E-4018-8757-6B0C841F75DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Pressure</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>t1</t>
   </si>
 </sst>
 </file>
@@ -411,41 +414,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8461008-E9A8-4CB1-AF0B-6338F0DA6B49}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="C2" sqref="C2:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -454,26 +464,30 @@
         <v>120</v>
       </c>
       <c r="C2">
+        <f>B2/10800</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D2">
         <v>3193.4</v>
       </c>
-      <c r="D2">
-        <v>80</v>
-      </c>
       <c r="E2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <f>2*PI()*G2^3*C2/3/F2</f>
-        <v>6.6882413199824313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>2*PI()*H2^3*D2/3/G2</f>
+        <v>133764.82639964859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -482,26 +496,30 @@
         <v>240</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">B3/10800</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="D3">
         <v>3088.2</v>
       </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
       <c r="E3">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">2*PI()*G3^3*C3/3/F3</f>
-        <v>6.4679109552106668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">2*PI()*H3^3*D3/3/G3</f>
+        <v>129358.21910421332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -510,26 +528,30 @@
         <v>360</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D4">
         <v>2995.7</v>
       </c>
-      <c r="D4">
-        <v>80</v>
-      </c>
       <c r="E4">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>6.2741794082392968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>125483.58816478591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -538,26 +560,30 @@
         <v>480</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="D5">
         <v>2907.1</v>
       </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
       <c r="E5">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>6.0886160021672602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>121772.32004334517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -566,26 +592,30 @@
         <v>600</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D6">
         <v>2822.6</v>
       </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
       <c r="E6">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G6">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>5.9116396160150337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>118232.79232030066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -594,26 +624,30 @@
         <v>720</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D7">
         <v>2738.5</v>
       </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
       <c r="E7">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F7">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>5.7355009879037668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>114710.0197580753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -622,26 +656,30 @@
         <v>840</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="D8">
         <v>2671.4</v>
       </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
       <c r="E8">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>5.5949670765331829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>111899.34153066366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -650,26 +688,30 @@
         <v>960</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="D9">
         <v>2570.4</v>
       </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
       <c r="E9">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>5.3834331711914709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>107668.66342382939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -678,26 +720,30 @@
         <v>1080</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D10">
         <v>2509.5</v>
       </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
       <c r="E10">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>5.2558845094557256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>105117.69018911447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -706,26 +752,30 @@
         <v>1200</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D11">
         <v>2446.1999999999998</v>
       </c>
-      <c r="D11">
-        <v>80</v>
-      </c>
       <c r="E11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>5.1233092994742355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>102466.18598948467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -734,26 +784,30 @@
         <v>1320</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="D12">
         <v>2390</v>
       </c>
-      <c r="D12">
-        <v>80</v>
-      </c>
       <c r="E12">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F12">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>5.0056042947197374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>100112.08589439474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24</v>
       </c>
@@ -762,26 +816,30 @@
         <v>1440</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D13">
         <v>2362.6999999999998</v>
       </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
       <c r="E13">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>4.948427308424403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>98968.546168488043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
@@ -790,26 +848,30 @@
         <v>1560</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="D14">
         <v>2297.6999999999998</v>
       </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
       <c r="E14">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G14">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>4.8122916267688458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>96245.832535376874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -818,26 +880,30 @@
         <v>1680</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="D15">
         <v>2243.6999999999998</v>
       </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
       <c r="E15">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G15">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>4.6991942912396132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>93983.885824792247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -846,26 +912,30 @@
         <v>1800</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D16">
         <v>2191.9</v>
       </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
       <c r="E16">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F16">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G16">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>4.590704624935646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>91814.092498712896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>32</v>
       </c>
@@ -874,26 +944,30 @@
         <v>1920</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="D17">
         <v>2144</v>
       </c>
-      <c r="D17">
-        <v>80</v>
-      </c>
       <c r="E17">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F17">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G17">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>4.4903830995310114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>89807.66199062021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>34</v>
       </c>
@@ -902,26 +976,30 @@
         <v>2040</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="D18">
         <v>2097.1999999999998</v>
       </c>
-      <c r="D18">
-        <v>80</v>
-      </c>
       <c r="E18">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G18">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>4.3923654087390105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>87847.308174780163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>36</v>
       </c>
@@ -930,26 +1008,30 @@
         <v>2160</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="D19">
         <v>2053.1999999999998</v>
       </c>
-      <c r="D19">
-        <v>80</v>
-      </c>
       <c r="E19">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G19">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>4.3002120242337094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>86004.24048467417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>38</v>
       </c>
@@ -958,26 +1040,30 @@
         <v>2280</v>
       </c>
       <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="D20">
         <v>2013.9</v>
       </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
       <c r="E20">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G20">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>4.2179022967096564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>84358.045934193113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
@@ -986,26 +1072,30 @@
         <v>2400</v>
       </c>
       <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D21">
         <v>1978.5</v>
       </c>
-      <c r="D21">
-        <v>80</v>
-      </c>
       <c r="E21">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F21">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G21">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>4.1437607100849378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>82875.214201698735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>42</v>
       </c>
@@ -1014,26 +1104,30 @@
         <v>2520</v>
       </c>
       <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="D22">
         <v>1940.9</v>
       </c>
-      <c r="D22">
-        <v>80</v>
-      </c>
       <c r="E22">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F22">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G22">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>4.0650114542349538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>81300.229084699051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44</v>
       </c>
@@ -1042,26 +1136,30 @@
         <v>2640</v>
       </c>
       <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D23">
         <v>1905.2</v>
       </c>
-      <c r="D23">
-        <v>80</v>
-      </c>
       <c r="E23">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G23">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>3.9902415490795171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>79804.830981590319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>46</v>
       </c>
@@ -1070,26 +1168,30 @@
         <v>2760</v>
       </c>
       <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="D24">
         <v>1866.7</v>
       </c>
-      <c r="D24">
-        <v>80</v>
-      </c>
       <c r="E24">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G24">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
-        <v>3.9096073376373788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>78192.146752747562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>48</v>
       </c>
@@ -1098,26 +1200,30 @@
         <v>2880</v>
       </c>
       <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D25">
         <v>1832.2</v>
       </c>
-      <c r="D25">
-        <v>80</v>
-      </c>
       <c r="E25">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F25">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G25">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
-        <v>3.8373507066048131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>76747.014132096258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1126,26 +1232,30 @@
         <v>3000</v>
       </c>
       <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D26">
         <v>1806.3</v>
       </c>
-      <c r="D26">
-        <v>80</v>
-      </c>
       <c r="E26">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G26">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
-        <v>3.7831058734528291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>75662.117469056568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>52</v>
       </c>
@@ -1154,26 +1264,30 @@
         <v>3120</v>
       </c>
       <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="D27">
         <v>1781.2</v>
       </c>
-      <c r="D27">
-        <v>80</v>
-      </c>
       <c r="E27">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F27">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G27">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
-        <v>3.7305365563827606</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>74610.731127655192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>54</v>
       </c>
@@ -1182,26 +1296,30 @@
         <v>3240</v>
       </c>
       <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="D28">
         <v>1725.8</v>
       </c>
-      <c r="D28">
-        <v>80</v>
-      </c>
       <c r="E28">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G28">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
-        <v>3.6145070677101772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>72290.141354203515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>56</v>
       </c>
@@ -1210,26 +1328,30 @@
         <v>3360</v>
       </c>
       <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="D29">
         <v>1705.7</v>
       </c>
-      <c r="D29">
-        <v>80</v>
-      </c>
       <c r="E29">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F29">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G29">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
-        <v>3.572409726152074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>71448.194523041457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>58</v>
       </c>
@@ -1238,26 +1360,30 @@
         <v>3480</v>
       </c>
       <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="D30">
         <v>1657.8</v>
       </c>
-      <c r="D30">
-        <v>80</v>
-      </c>
       <c r="E30">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F30">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G30">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
-        <v>3.4720882007474398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>69441.764014948785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>60</v>
       </c>
@@ -1266,26 +1392,30 @@
         <v>3600</v>
       </c>
       <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D31">
         <v>1640.8</v>
       </c>
-      <c r="D31">
-        <v>80</v>
-      </c>
       <c r="E31">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F31">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G31">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
-        <v>3.4364834840067555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>68729.669680135092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>62</v>
       </c>
@@ -1294,26 +1424,30 @@
         <v>3720</v>
       </c>
       <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="D32">
         <v>1613.6</v>
       </c>
-      <c r="D32">
-        <v>80</v>
-      </c>
       <c r="E32">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F32">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G32">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
-        <v>3.3795159372216603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>67590.3187444332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>64</v>
       </c>
@@ -1322,26 +1456,30 @@
         <v>3840</v>
       </c>
       <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="D33">
         <v>1573.5</v>
       </c>
-      <c r="D33">
-        <v>80</v>
-      </c>
       <c r="E33">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G33">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
-        <v>3.2955306936156936</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>65910.613872313843</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>66</v>
       </c>
@@ -1350,26 +1488,30 @@
         <v>3960</v>
       </c>
       <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="D34">
         <v>1524.9</v>
       </c>
-      <c r="D34">
-        <v>80</v>
-      </c>
       <c r="E34">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F34">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G34">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
-        <v>3.1937430916393845</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>63874.861832787683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>68</v>
       </c>
@@ -1378,26 +1520,30 @@
         <v>4080</v>
       </c>
       <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D35">
         <v>1514.9</v>
       </c>
-      <c r="D35">
-        <v>80</v>
-      </c>
       <c r="E35">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F35">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G35">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
-        <v>3.1727991406154525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>63455.982812309034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>70</v>
       </c>
@@ -1406,26 +1552,30 @@
         <v>4200</v>
       </c>
       <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D36">
         <v>1503.5</v>
       </c>
-      <c r="D36">
-        <v>80</v>
-      </c>
       <c r="E36">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F36">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G36">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
-        <v>3.1489230364481702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>62978.460728963386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>72</v>
       </c>
@@ -1434,26 +1584,30 @@
         <v>4320</v>
       </c>
       <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="D37">
         <v>1468.8</v>
       </c>
-      <c r="D37">
-        <v>80</v>
-      </c>
       <c r="E37">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F37">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G37">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
-        <v>3.0762475263951261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>61524.950527902511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>74</v>
       </c>
@@ -1462,26 +1616,30 @@
         <v>4440</v>
       </c>
       <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="D38">
         <v>1452.8</v>
       </c>
-      <c r="D38">
-        <v>80</v>
-      </c>
       <c r="E38">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G38">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
-        <v>3.0427372047568348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>60854.744095136673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>76</v>
       </c>
@@ -1490,26 +1648,30 @@
         <v>4560</v>
       </c>
       <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="D39">
         <v>1434.2</v>
       </c>
-      <c r="D39">
-        <v>80</v>
-      </c>
       <c r="E39">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G39">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
-        <v>3.0037814558523217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>60075.629117046417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>78</v>
       </c>
@@ -1518,26 +1680,30 @@
         <v>4680</v>
       </c>
       <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D40">
         <v>1405.1</v>
       </c>
-      <c r="D40">
-        <v>80</v>
-      </c>
       <c r="E40">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F40">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G40">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
-        <v>2.9428345583726792</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>58856.691167453573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>80</v>
       </c>
@@ -1546,26 +1712,30 @@
         <v>4800</v>
       </c>
       <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D41">
         <v>1373.4</v>
       </c>
-      <c r="D41">
-        <v>80</v>
-      </c>
       <c r="E41">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F41">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G41">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
-        <v>2.8764422336268152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>57528.844672536296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>82</v>
       </c>
@@ -1574,26 +1744,30 @@
         <v>4920</v>
       </c>
       <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D42">
         <v>1355.6</v>
       </c>
-      <c r="D42">
-        <v>80</v>
-      </c>
       <c r="E42">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F42">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G42">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
-        <v>2.8391620008042158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>56783.24001608431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>84</v>
       </c>
@@ -1602,26 +1776,30 @@
         <v>5040</v>
       </c>
       <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D43">
         <v>1337.8</v>
       </c>
-      <c r="D43">
-        <v>80</v>
-      </c>
       <c r="E43">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F43">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
-        <v>2.8018817679816173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>56037.635359632332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>86</v>
       </c>
@@ -1630,26 +1808,30 @@
         <v>5160</v>
       </c>
       <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D44">
         <v>1331.4</v>
       </c>
-      <c r="D44">
-        <v>80</v>
-      </c>
       <c r="E44">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F44">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G44">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
-        <v>2.7884776393263011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>55769.552786526008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>88</v>
       </c>
@@ -1658,26 +1840,30 @@
         <v>5280</v>
       </c>
       <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="D45">
         <v>1318.9</v>
       </c>
-      <c r="D45">
-        <v>80</v>
-      </c>
       <c r="E45">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F45">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G45">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
-        <v>2.7622977005463865</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>55245.954010927708</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90</v>
       </c>
@@ -1686,26 +1872,30 @@
         <v>5400</v>
       </c>
       <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D46">
         <v>1286.3</v>
       </c>
-      <c r="D46">
-        <v>80</v>
-      </c>
       <c r="E46">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F46">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G46">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
-        <v>2.6940204202083677</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>53880.408404167341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>92</v>
       </c>
@@ -1714,26 +1904,30 @@
         <v>5520</v>
       </c>
       <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="D47">
         <v>1246.0999999999999</v>
       </c>
-      <c r="D47">
-        <v>80</v>
-      </c>
       <c r="E47">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F47">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G47">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
-        <v>2.6098257370921614</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>52196.51474184321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>94</v>
       </c>
@@ -1742,26 +1936,30 @@
         <v>5640</v>
       </c>
       <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="D48">
         <v>1240</v>
       </c>
-      <c r="D48">
-        <v>80</v>
-      </c>
       <c r="E48">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F48">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G48">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
-        <v>2.5970499269675629</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>51940.998539351247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>96</v>
       </c>
@@ -1770,26 +1968,30 @@
         <v>5760</v>
       </c>
       <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D49">
         <v>1204.5999999999999</v>
       </c>
-      <c r="D49">
-        <v>80</v>
-      </c>
       <c r="E49">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F49">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G49">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
-        <v>2.5229083403428438</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>50458.166806856862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>98</v>
       </c>
@@ -1798,26 +2000,30 @@
         <v>5880</v>
       </c>
       <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="D50">
         <v>1181.0999999999999</v>
       </c>
-      <c r="D50">
-        <v>80</v>
-      </c>
       <c r="E50">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F50">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G50">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
-        <v>2.4736900554366033</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>49473.801108732056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>100</v>
       </c>
@@ -1826,26 +2032,30 @@
         <v>6000</v>
       </c>
       <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D51">
         <v>1176.0999999999999</v>
       </c>
-      <c r="D51">
-        <v>80</v>
-      </c>
       <c r="E51">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F51">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G51">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
-        <v>2.4632180799246375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>49264.361598492731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>102</v>
       </c>
@@ -1854,26 +2064,30 @@
         <v>6120</v>
       </c>
       <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D52">
         <v>1143.7</v>
       </c>
-      <c r="D52">
-        <v>80</v>
-      </c>
       <c r="E52">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F52">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G52">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
-        <v>2.3953596786070981</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>47907.193572141958</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>104</v>
       </c>
@@ -1882,26 +2096,30 @@
         <v>6240</v>
       </c>
       <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="D53">
         <v>1123.4000000000001</v>
       </c>
-      <c r="D53">
-        <v>80</v>
-      </c>
       <c r="E53">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F53">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G53">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
-        <v>2.3528434580285165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>47056.869160570321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>106</v>
       </c>
@@ -1910,26 +2128,30 @@
         <v>6360</v>
       </c>
       <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="D54">
         <v>1105.5</v>
       </c>
-      <c r="D54">
-        <v>80</v>
-      </c>
       <c r="E54">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F54">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G54">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
-        <v>2.3153537856956783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>46307.075713913553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>108</v>
       </c>
@@ -1938,26 +2160,30 @@
         <v>6480</v>
       </c>
       <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="D55">
         <v>1089.7</v>
       </c>
-      <c r="D55">
-        <v>80</v>
-      </c>
       <c r="E55">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F55">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G55">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
-        <v>2.2822623430778655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>45645.246861557302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>110</v>
       </c>
@@ -1966,26 +2192,30 @@
         <v>6600</v>
       </c>
       <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="D56">
         <v>1075.9000000000001</v>
       </c>
-      <c r="D56">
-        <v>80</v>
-      </c>
       <c r="E56">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F56">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G56">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
-        <v>2.2533596906648392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>45067.193813296777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>112</v>
       </c>
@@ -1994,26 +2224,30 @@
         <v>6720</v>
       </c>
       <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D57">
         <v>1060</v>
       </c>
-      <c r="D57">
-        <v>80</v>
-      </c>
       <c r="E57">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G57">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
-        <v>2.2200588085367876</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>44401.176170735744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>114</v>
       </c>
@@ -2022,26 +2256,30 @@
         <v>6840</v>
       </c>
       <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D58">
         <v>1049.2</v>
       </c>
-      <c r="D58">
-        <v>80</v>
-      </c>
       <c r="E58">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F58">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G58">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
-        <v>2.197439341430941</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>43948.78682861881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>116</v>
       </c>
@@ -2050,26 +2288,30 @@
         <v>6960</v>
       </c>
       <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="D59">
         <v>1034</v>
       </c>
-      <c r="D59">
-        <v>80</v>
-      </c>
       <c r="E59">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F59">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G59">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
-        <v>2.1656045358745644</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>43312.090717491279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>118</v>
       </c>
@@ -2078,26 +2320,30 @@
         <v>7080</v>
       </c>
       <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="D60">
         <v>1019.9</v>
       </c>
-      <c r="D60">
-        <v>80</v>
-      </c>
       <c r="E60">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F60">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G60">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
-        <v>2.1360735649308205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>42721.471298616394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>120</v>
       </c>
@@ -2106,26 +2352,30 @@
         <v>7200</v>
       </c>
       <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D61">
         <v>1011.7</v>
       </c>
-      <c r="D61">
-        <v>80</v>
-      </c>
       <c r="E61">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F61">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G61">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
-        <v>2.1188995250911962</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>42377.990501823915</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>122</v>
       </c>
@@ -2134,26 +2384,30 @@
         <v>7320</v>
       </c>
       <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="D62">
         <v>1001.9</v>
       </c>
-      <c r="D62">
-        <v>80</v>
-      </c>
       <c r="E62">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F62">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G62">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
-        <v>2.0983744530877426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>41967.489061754844</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>124</v>
       </c>
@@ -2162,26 +2416,30 @@
         <v>7440</v>
       </c>
       <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="D63">
         <v>989.69</v>
       </c>
-      <c r="D63">
-        <v>80</v>
-      </c>
       <c r="E63">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F63">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G63">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
-        <v>2.0728018888875219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>41456.037777750433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>126</v>
       </c>
@@ -2190,26 +2448,30 @@
         <v>7560</v>
       </c>
       <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="D64">
         <v>982.33</v>
       </c>
-      <c r="D64">
-        <v>80</v>
-      </c>
       <c r="E64">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F64">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G64">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
-        <v>2.057387140933908</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>41147.742818678147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>128</v>
       </c>
@@ -2218,26 +2480,30 @@
         <v>7680</v>
       </c>
       <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="D65">
         <v>976.24</v>
       </c>
-      <c r="D65">
-        <v>80</v>
-      </c>
       <c r="E65">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F65">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G65">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H65">
-        <f t="shared" si="1"/>
-        <v>2.0446322747603336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>40892.645495206663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>130</v>
       </c>
@@ -2246,723 +2512,827 @@
         <v>7800</v>
       </c>
       <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D66">
         <v>965.25</v>
       </c>
-      <c r="D66">
-        <v>80</v>
-      </c>
       <c r="E66">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F66">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G66">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
-        <v>2.0216148725850323</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>40432.297451700637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>132</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B91" si="2">A67*60</f>
+        <f t="shared" ref="B67:B91" si="3">A67*60</f>
         <v>7920</v>
       </c>
       <c r="C67">
+        <f t="shared" ref="C67:C91" si="4">B67/10800</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D67">
         <v>957.3</v>
       </c>
-      <c r="D67">
-        <v>80</v>
-      </c>
       <c r="E67">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F67">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G67">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H91" si="3">2*PI()*G67^3*C67/3/F67</f>
-        <v>2.0049644315210062</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I91" si="5">2*PI()*H67^3*D67/3/G67</f>
+        <v>40099.288630420117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8040</v>
       </c>
       <c r="C68">
+        <f t="shared" si="4"/>
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="D68">
         <v>946.91</v>
       </c>
-      <c r="D68">
-        <v>80</v>
-      </c>
       <c r="E68">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F68">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G68">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
-        <v>1.9832036664071411</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>39664.073328142804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>136</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8160</v>
       </c>
       <c r="C69">
+        <f t="shared" si="4"/>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="D69">
         <v>954.07</v>
       </c>
-      <c r="D69">
-        <v>80</v>
-      </c>
       <c r="E69">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F69">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G69">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H69">
-        <f t="shared" si="3"/>
-        <v>1.9981995353402764</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>39963.990706805518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>138</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8280</v>
       </c>
       <c r="C70">
+        <f t="shared" si="4"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="D70">
         <v>927.2</v>
       </c>
-      <c r="D70">
-        <v>80</v>
-      </c>
       <c r="E70">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F70">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G70">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
-        <v>1.9419231389389713</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>38838.462778779416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>140</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8400</v>
       </c>
       <c r="C71">
+        <f t="shared" si="4"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D71">
         <v>922.98</v>
       </c>
-      <c r="D71">
-        <v>80</v>
-      </c>
       <c r="E71">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F71">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G71">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H71">
-        <f t="shared" si="3"/>
-        <v>1.9330847916068719</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>38661.695832137426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>142</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8520</v>
       </c>
       <c r="C72">
+        <f t="shared" si="4"/>
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D72">
         <v>902.61</v>
       </c>
-      <c r="D72">
-        <v>80</v>
-      </c>
       <c r="E72">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F72">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G72">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H72">
-        <f t="shared" si="3"/>
-        <v>1.8904219633711223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>37808.439267422436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>144</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8640</v>
       </c>
       <c r="C73">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="D73">
         <v>896.82</v>
       </c>
-      <c r="D73">
-        <v>80</v>
-      </c>
       <c r="E73">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F73">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G73">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H73">
-        <f t="shared" si="3"/>
-        <v>1.8782954157282661</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>37565.908314565313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>146</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8760</v>
       </c>
       <c r="C74">
+        <f t="shared" si="4"/>
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="D74">
         <v>894.89</v>
       </c>
-      <c r="D74">
-        <v>80</v>
-      </c>
       <c r="E74">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F74">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G74">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H74">
-        <f t="shared" si="3"/>
-        <v>1.8742532331806467</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>37485.064663612931</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>148</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8880</v>
       </c>
       <c r="C75">
+        <f t="shared" si="4"/>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="D75">
         <v>882.12</v>
       </c>
-      <c r="D75">
-        <v>80</v>
-      </c>
       <c r="E75">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F75">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G75">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H75">
-        <f t="shared" si="3"/>
-        <v>1.847507807723086</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>36950.156154461707</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>150</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9000</v>
       </c>
       <c r="C76">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D76">
         <v>868.95</v>
       </c>
-      <c r="D76">
-        <v>80</v>
-      </c>
       <c r="E76">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F76">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G76">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H76">
-        <f t="shared" si="3"/>
-        <v>1.8199246242245675</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>36398.49248449134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>152</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9120</v>
       </c>
       <c r="C77">
+        <f t="shared" si="4"/>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D77">
         <v>861.62</v>
       </c>
-      <c r="D77">
-        <v>80</v>
-      </c>
       <c r="E77">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F77">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G77">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H77">
-        <f t="shared" si="3"/>
-        <v>1.8045727081240255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>36091.454162480499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>154</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9240</v>
       </c>
       <c r="C78">
+        <f t="shared" si="4"/>
+        <v>0.85555555555555551</v>
+      </c>
+      <c r="D78">
         <v>850.45</v>
       </c>
-      <c r="D78">
-        <v>80</v>
-      </c>
       <c r="E78">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F78">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G78">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H78">
-        <f t="shared" si="3"/>
-        <v>1.7811783148302933</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>35623.566296605859</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>156</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9360</v>
       </c>
       <c r="C79">
+        <f t="shared" si="4"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D79">
         <v>847.35</v>
       </c>
-      <c r="D79">
-        <v>80</v>
-      </c>
       <c r="E79">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F79">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G79">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H79">
-        <f t="shared" si="3"/>
-        <v>1.7746856900128745</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>35493.713800257479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>158</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9480</v>
       </c>
       <c r="C80">
+        <f t="shared" si="4"/>
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="D80">
         <v>839.69</v>
       </c>
-      <c r="D80">
-        <v>80</v>
-      </c>
       <c r="E80">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F80">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G80">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H80">
-        <f t="shared" si="3"/>
-        <v>1.7586426235285426</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>35172.852470570848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>160</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9600</v>
       </c>
       <c r="C81">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D81">
         <v>834.95</v>
       </c>
-      <c r="D81">
-        <v>80</v>
-      </c>
       <c r="E81">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F81">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G81">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H81">
-        <f t="shared" si="3"/>
-        <v>1.7487151907431988</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>34974.303814863975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>162</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9720</v>
       </c>
       <c r="C82">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="D82">
         <v>829.37</v>
       </c>
-      <c r="D82">
-        <v>80</v>
-      </c>
       <c r="E82">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F82">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G82">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H82">
-        <f t="shared" si="3"/>
-        <v>1.7370284660718447</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>34740.569321436888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>164</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9840</v>
       </c>
       <c r="C83">
+        <f t="shared" si="4"/>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="D83">
         <v>824.01</v>
       </c>
-      <c r="D83">
-        <v>80</v>
-      </c>
       <c r="E83">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F83">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G83">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H83">
-        <f t="shared" si="3"/>
-        <v>1.7258025083230173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>34516.050166460336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>166</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9960</v>
       </c>
       <c r="C84">
+        <f t="shared" si="4"/>
+        <v>0.92222222222222228</v>
+      </c>
+      <c r="D84">
         <v>818.07</v>
       </c>
-      <c r="D84">
-        <v>80</v>
-      </c>
       <c r="E84">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F84">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G84">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H84">
-        <f t="shared" si="3"/>
-        <v>1.7133618014148018</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>34267.236028296029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>168</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10080</v>
       </c>
       <c r="C85">
+        <f t="shared" si="4"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="D85">
         <v>814.05</v>
       </c>
-      <c r="D85">
-        <v>80</v>
-      </c>
       <c r="E85">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F85">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G85">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H85">
-        <f t="shared" si="3"/>
-        <v>1.7049423331031808</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>34098.84666206361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>170</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10200</v>
       </c>
       <c r="C86">
+        <f t="shared" si="4"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="D86">
         <v>799.04</v>
       </c>
-      <c r="D86">
-        <v>80</v>
-      </c>
       <c r="E86">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F86">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G86">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H86">
-        <f t="shared" si="3"/>
-        <v>1.6735054626162591</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>33470.109252325179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>172</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10320</v>
       </c>
       <c r="C87">
+        <f t="shared" si="4"/>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="D87">
         <v>801.26</v>
       </c>
-      <c r="D87">
-        <v>80</v>
-      </c>
       <c r="E87">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F87">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G87">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H87">
-        <f t="shared" si="3"/>
-        <v>1.678155019743572</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>33563.100394871435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>174</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10440</v>
       </c>
       <c r="C88">
+        <f t="shared" si="4"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D88">
         <v>789.27</v>
       </c>
-      <c r="D88">
-        <v>80</v>
-      </c>
       <c r="E88">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F88">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G88">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H88">
-        <f t="shared" si="3"/>
-        <v>1.6530432224658778</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>33060.864449317545</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>176</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10560</v>
       </c>
       <c r="C89">
+        <f t="shared" si="4"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="D89">
         <v>792.91</v>
       </c>
-      <c r="D89">
-        <v>80</v>
-      </c>
       <c r="E89">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F89">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G89">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H89">
-        <f t="shared" si="3"/>
-        <v>1.6606668206385888</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>33213.336412771765</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>178</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10680</v>
       </c>
       <c r="C90">
+        <f t="shared" si="4"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="D90">
         <v>780.99</v>
       </c>
-      <c r="D90">
-        <v>80</v>
-      </c>
       <c r="E90">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F90">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G90">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H90">
-        <f t="shared" si="3"/>
-        <v>1.6357016310180621</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>32714.032620361231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>180</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10800</v>
       </c>
       <c r="C91">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D91">
         <v>775.37</v>
       </c>
-      <c r="D91">
-        <v>80</v>
-      </c>
       <c r="E91">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F91">
-        <v>1E-3</v>
+        <v>130</v>
       </c>
       <c r="G91">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H91">
-        <f t="shared" si="3"/>
-        <v>1.6239311305426123</v>
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>32478.622610852239</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSweep80Bar130C.xlsx
+++ b/TimeSweep80Bar130C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535E1159-4D1E-4018-8757-6B0C841F75DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B490C9B-731E-46CA-BD19-014BE040F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C91"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,14 +477,14 @@
         <v>130</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I2">
         <f>2*PI()*H2^3*D2/3/G2</f>
-        <v>133764.82639964859</v>
+        <v>6.6882413199824313</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -509,14 +509,14 @@
         <v>130</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="2">2*PI()*H3^3*D3/3/G3</f>
-        <v>129358.21910421332</v>
+        <v>6.4679109552106668</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -541,14 +541,14 @@
         <v>130</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>125483.58816478591</v>
+        <v>6.2741794082392968</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -573,14 +573,14 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>121772.32004334517</v>
+        <v>6.0886160021672602</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -605,14 +605,14 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>118232.79232030066</v>
+        <v>5.9116396160150337</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,14 +637,14 @@
         <v>130</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>114710.0197580753</v>
+        <v>5.7355009879037668</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -669,14 +669,14 @@
         <v>130</v>
       </c>
       <c r="G8">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>111899.34153066366</v>
+        <v>5.5949670765331829</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -701,14 +701,14 @@
         <v>130</v>
       </c>
       <c r="G9">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>107668.66342382939</v>
+        <v>5.3834331711914709</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -733,14 +733,14 @@
         <v>130</v>
       </c>
       <c r="G10">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>105117.69018911447</v>
+        <v>5.2558845094557256</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,14 +765,14 @@
         <v>130</v>
       </c>
       <c r="G11">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>102466.18598948467</v>
+        <v>5.1233092994742355</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -797,14 +797,14 @@
         <v>130</v>
       </c>
       <c r="G12">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>100112.08589439474</v>
+        <v>5.0056042947197374</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -829,14 +829,14 @@
         <v>130</v>
       </c>
       <c r="G13">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>98968.546168488043</v>
+        <v>4.948427308424403</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,14 +861,14 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>96245.832535376874</v>
+        <v>4.8122916267688458</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -893,14 +893,14 @@
         <v>130</v>
       </c>
       <c r="G15">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>93983.885824792247</v>
+        <v>4.6991942912396132</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -925,14 +925,14 @@
         <v>130</v>
       </c>
       <c r="G16">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>91814.092498712896</v>
+        <v>4.590704624935646</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -957,14 +957,14 @@
         <v>130</v>
       </c>
       <c r="G17">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>89807.66199062021</v>
+        <v>4.4903830995310114</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -989,14 +989,14 @@
         <v>130</v>
       </c>
       <c r="G18">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>87847.308174780163</v>
+        <v>4.3923654087390105</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,14 +1021,14 @@
         <v>130</v>
       </c>
       <c r="G19">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>86004.24048467417</v>
+        <v>4.3002120242337094</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1053,14 +1053,14 @@
         <v>130</v>
       </c>
       <c r="G20">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>84358.045934193113</v>
+        <v>4.2179022967096564</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1085,14 +1085,14 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>82875.214201698735</v>
+        <v>4.1437607100849378</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1117,14 +1117,14 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>81300.229084699051</v>
+        <v>4.0650114542349538</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1149,14 +1149,14 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>79804.830981590319</v>
+        <v>3.9902415490795171</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,14 +1181,14 @@
         <v>130</v>
       </c>
       <c r="G24">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>78192.146752747562</v>
+        <v>3.9096073376373788</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1213,14 +1213,14 @@
         <v>130</v>
       </c>
       <c r="G25">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>76747.014132096258</v>
+        <v>3.8373507066048131</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1245,14 +1245,14 @@
         <v>130</v>
       </c>
       <c r="G26">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>75662.117469056568</v>
+        <v>3.7831058734528291</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1277,14 +1277,14 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>74610.731127655192</v>
+        <v>3.7305365563827606</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,14 +1309,14 @@
         <v>130</v>
       </c>
       <c r="G28">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>72290.141354203515</v>
+        <v>3.6145070677101772</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1341,14 +1341,14 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>71448.194523041457</v>
+        <v>3.572409726152074</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,14 +1373,14 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>69441.764014948785</v>
+        <v>3.4720882007474398</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1405,14 +1405,14 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>68729.669680135092</v>
+        <v>3.4364834840067555</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1437,14 +1437,14 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>67590.3187444332</v>
+        <v>3.3795159372216603</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1469,14 +1469,14 @@
         <v>130</v>
       </c>
       <c r="G33">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>65910.613872313843</v>
+        <v>3.2955306936156936</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1501,14 +1501,14 @@
         <v>130</v>
       </c>
       <c r="G34">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>63874.861832787683</v>
+        <v>3.1937430916393845</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1533,14 +1533,14 @@
         <v>130</v>
       </c>
       <c r="G35">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>63455.982812309034</v>
+        <v>3.1727991406154525</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1565,14 +1565,14 @@
         <v>130</v>
       </c>
       <c r="G36">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>62978.460728963386</v>
+        <v>3.1489230364481702</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1597,14 +1597,14 @@
         <v>130</v>
       </c>
       <c r="G37">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>61524.950527902511</v>
+        <v>3.0762475263951261</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1629,14 +1629,14 @@
         <v>130</v>
       </c>
       <c r="G38">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>60854.744095136673</v>
+        <v>3.0427372047568348</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1661,14 +1661,14 @@
         <v>130</v>
       </c>
       <c r="G39">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>60075.629117046417</v>
+        <v>3.0037814558523217</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1693,14 +1693,14 @@
         <v>130</v>
       </c>
       <c r="G40">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>58856.691167453573</v>
+        <v>2.9428345583726792</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1725,14 +1725,14 @@
         <v>130</v>
       </c>
       <c r="G41">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>57528.844672536296</v>
+        <v>2.8764422336268152</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1757,14 +1757,14 @@
         <v>130</v>
       </c>
       <c r="G42">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>56783.24001608431</v>
+        <v>2.8391620008042158</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1789,14 +1789,14 @@
         <v>130</v>
       </c>
       <c r="G43">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>56037.635359632332</v>
+        <v>2.8018817679816173</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1821,14 +1821,14 @@
         <v>130</v>
       </c>
       <c r="G44">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>55769.552786526008</v>
+        <v>2.7884776393263011</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1853,14 +1853,14 @@
         <v>130</v>
       </c>
       <c r="G45">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>55245.954010927708</v>
+        <v>2.7622977005463865</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1885,14 +1885,14 @@
         <v>130</v>
       </c>
       <c r="G46">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>53880.408404167341</v>
+        <v>2.6940204202083677</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1917,14 +1917,14 @@
         <v>130</v>
       </c>
       <c r="G47">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>52196.51474184321</v>
+        <v>2.6098257370921614</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,14 +1949,14 @@
         <v>130</v>
       </c>
       <c r="G48">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>51940.998539351247</v>
+        <v>2.5970499269675629</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1981,14 +1981,14 @@
         <v>130</v>
       </c>
       <c r="G49">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>50458.166806856862</v>
+        <v>2.5229083403428438</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2013,14 +2013,14 @@
         <v>130</v>
       </c>
       <c r="G50">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>49473.801108732056</v>
+        <v>2.4736900554366033</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2045,14 +2045,14 @@
         <v>130</v>
       </c>
       <c r="G51">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>49264.361598492731</v>
+        <v>2.4632180799246375</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,14 +2077,14 @@
         <v>130</v>
       </c>
       <c r="G52">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>47907.193572141958</v>
+        <v>2.3953596786070981</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2109,14 +2109,14 @@
         <v>130</v>
       </c>
       <c r="G53">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>47056.869160570321</v>
+        <v>2.3528434580285165</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2141,14 +2141,14 @@
         <v>130</v>
       </c>
       <c r="G54">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>46307.075713913553</v>
+        <v>2.3153537856956783</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2173,14 +2173,14 @@
         <v>130</v>
       </c>
       <c r="G55">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>45645.246861557302</v>
+        <v>2.2822623430778655</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2205,14 +2205,14 @@
         <v>130</v>
       </c>
       <c r="G56">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>45067.193813296777</v>
+        <v>2.2533596906648392</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2237,14 +2237,14 @@
         <v>130</v>
       </c>
       <c r="G57">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>44401.176170735744</v>
+        <v>2.2200588085367876</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2269,14 +2269,14 @@
         <v>130</v>
       </c>
       <c r="G58">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>43948.78682861881</v>
+        <v>2.197439341430941</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,14 +2301,14 @@
         <v>130</v>
       </c>
       <c r="G59">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>43312.090717491279</v>
+        <v>2.1656045358745644</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2333,14 +2333,14 @@
         <v>130</v>
       </c>
       <c r="G60">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>42721.471298616394</v>
+        <v>2.1360735649308205</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2365,14 +2365,14 @@
         <v>130</v>
       </c>
       <c r="G61">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>42377.990501823915</v>
+        <v>2.1188995250911962</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2397,14 +2397,14 @@
         <v>130</v>
       </c>
       <c r="G62">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>41967.489061754844</v>
+        <v>2.0983744530877426</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,14 +2429,14 @@
         <v>130</v>
       </c>
       <c r="G63">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>41456.037777750433</v>
+        <v>2.0728018888875219</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2461,14 +2461,14 @@
         <v>130</v>
       </c>
       <c r="G64">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>41147.742818678147</v>
+        <v>2.057387140933908</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2493,14 +2493,14 @@
         <v>130</v>
       </c>
       <c r="G65">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>40892.645495206663</v>
+        <v>2.0446322747603336</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2525,14 +2525,14 @@
         <v>130</v>
       </c>
       <c r="G66">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>40432.297451700637</v>
+        <v>2.0216148725850323</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2557,14 +2557,14 @@
         <v>130</v>
       </c>
       <c r="G67">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I91" si="5">2*PI()*H67^3*D67/3/G67</f>
-        <v>40099.288630420117</v>
+        <v>2.0049644315210062</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,14 +2589,14 @@
         <v>130</v>
       </c>
       <c r="G68">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I68">
         <f t="shared" si="5"/>
-        <v>39664.073328142804</v>
+        <v>1.9832036664071411</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,14 +2621,14 @@
         <v>130</v>
       </c>
       <c r="G69">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I69">
         <f t="shared" si="5"/>
-        <v>39963.990706805518</v>
+        <v>1.9981995353402764</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2653,14 +2653,14 @@
         <v>130</v>
       </c>
       <c r="G70">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I70">
         <f t="shared" si="5"/>
-        <v>38838.462778779416</v>
+        <v>1.9419231389389713</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2685,14 +2685,14 @@
         <v>130</v>
       </c>
       <c r="G71">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I71">
         <f t="shared" si="5"/>
-        <v>38661.695832137426</v>
+        <v>1.9330847916068719</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2717,14 +2717,14 @@
         <v>130</v>
       </c>
       <c r="G72">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I72">
         <f t="shared" si="5"/>
-        <v>37808.439267422436</v>
+        <v>1.8904219633711223</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,14 +2749,14 @@
         <v>130</v>
       </c>
       <c r="G73">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>37565.908314565313</v>
+        <v>1.8782954157282661</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2781,14 +2781,14 @@
         <v>130</v>
       </c>
       <c r="G74">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I74">
         <f t="shared" si="5"/>
-        <v>37485.064663612931</v>
+        <v>1.8742532331806467</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2813,14 +2813,14 @@
         <v>130</v>
       </c>
       <c r="G75">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I75">
         <f t="shared" si="5"/>
-        <v>36950.156154461707</v>
+        <v>1.847507807723086</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2845,14 +2845,14 @@
         <v>130</v>
       </c>
       <c r="G76">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I76">
         <f t="shared" si="5"/>
-        <v>36398.49248449134</v>
+        <v>1.8199246242245675</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2877,14 +2877,14 @@
         <v>130</v>
       </c>
       <c r="G77">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I77">
         <f t="shared" si="5"/>
-        <v>36091.454162480499</v>
+        <v>1.8045727081240255</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2909,14 +2909,14 @@
         <v>130</v>
       </c>
       <c r="G78">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>35623.566296605859</v>
+        <v>1.7811783148302933</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2941,14 +2941,14 @@
         <v>130</v>
       </c>
       <c r="G79">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>35493.713800257479</v>
+        <v>1.7746856900128745</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,14 +2973,14 @@
         <v>130</v>
       </c>
       <c r="G80">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I80">
         <f t="shared" si="5"/>
-        <v>35172.852470570848</v>
+        <v>1.7586426235285426</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3005,14 +3005,14 @@
         <v>130</v>
       </c>
       <c r="G81">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I81">
         <f t="shared" si="5"/>
-        <v>34974.303814863975</v>
+        <v>1.7487151907431988</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3037,14 +3037,14 @@
         <v>130</v>
       </c>
       <c r="G82">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>34740.569321436888</v>
+        <v>1.7370284660718447</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3069,14 +3069,14 @@
         <v>130</v>
       </c>
       <c r="G83">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>34516.050166460336</v>
+        <v>1.7258025083230173</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3101,14 +3101,14 @@
         <v>130</v>
       </c>
       <c r="G84">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I84">
         <f t="shared" si="5"/>
-        <v>34267.236028296029</v>
+        <v>1.7133618014148018</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3133,14 +3133,14 @@
         <v>130</v>
       </c>
       <c r="G85">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I85">
         <f t="shared" si="5"/>
-        <v>34098.84666206361</v>
+        <v>1.7049423331031808</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,14 +3165,14 @@
         <v>130</v>
       </c>
       <c r="G86">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I86">
         <f t="shared" si="5"/>
-        <v>33470.109252325179</v>
+        <v>1.6735054626162591</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3197,14 +3197,14 @@
         <v>130</v>
       </c>
       <c r="G87">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I87">
         <f t="shared" si="5"/>
-        <v>33563.100394871435</v>
+        <v>1.678155019743572</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3229,14 +3229,14 @@
         <v>130</v>
       </c>
       <c r="G88">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I88">
         <f t="shared" si="5"/>
-        <v>33060.864449317545</v>
+        <v>1.6530432224658778</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3261,14 +3261,14 @@
         <v>130</v>
       </c>
       <c r="G89">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I89">
         <f t="shared" si="5"/>
-        <v>33213.336412771765</v>
+        <v>1.6606668206385888</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,14 +3293,14 @@
         <v>130</v>
       </c>
       <c r="G90">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I90">
         <f t="shared" si="5"/>
-        <v>32714.032620361231</v>
+        <v>1.6357016310180621</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3325,14 +3325,14 @@
         <v>130</v>
       </c>
       <c r="G91">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I91">
         <f t="shared" si="5"/>
-        <v>32478.622610852239</v>
+        <v>1.6239311305426123</v>
       </c>
     </row>
   </sheetData>
